--- a/Features.xlsx
+++ b/Features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lusine/Documents/Masterarbeit/Code/MA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A0C0A7-5837-EB48-83E5-DA7646A71DC9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36412199-5124-E54D-9B95-21974B107DD6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-21080" windowWidth="31720" windowHeight="18060" xr2:uid="{CBBA58C6-C4C8-8F40-AC78-68ADD622581E}"/>
   </bookViews>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lusine/Documents/Masterarbeit/Code/MA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36412199-5124-E54D-9B95-21974B107DD6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC23D31-7EB6-9B4B-84D2-041402713D1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-21080" windowWidth="31720" windowHeight="18060" xr2:uid="{CBBA58C6-C4C8-8F40-AC78-68ADD622581E}"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="16120" xr2:uid="{CBBA58C6-C4C8-8F40-AC78-68ADD622581E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="135">
   <si>
     <t>GCContent</t>
   </si>
@@ -359,6 +358,78 @@
   </si>
   <si>
     <t>Column</t>
+  </si>
+  <si>
+    <t>https://hgdownload.soe.ucsc.edu/goldenPath/hg38/database/</t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>cpgIslandExt</t>
+  </si>
+  <si>
+    <t>perCpg</t>
+  </si>
+  <si>
+    <t>perGc</t>
+  </si>
+  <si>
+    <t>gcNum</t>
+  </si>
+  <si>
+    <t>Count over a window ?</t>
+  </si>
+  <si>
+    <t>many files, aggregate over?</t>
+  </si>
+  <si>
+    <t>http://hgdownload.soe.ucsc.edu/goldenPath/hg19/phyloP46way/placentalMammals/</t>
+  </si>
+  <si>
+    <t>http://mendel.stanford.edu/SidowLab/downloads/gerp/</t>
+  </si>
+  <si>
+    <t>no data für hg38</t>
+  </si>
+  <si>
+    <t>http://hgdownload.soe.ucsc.edu/gbdb/hg38/bbi/wgEncodeReg/wgEncodeRegMarkH3k27ac/</t>
+  </si>
+  <si>
+    <t>http://hgdownload.soe.ucsc.edu/gbdb/hg38/bbi/wgEncodeReg/wgEncodeRegMarkH3k4me1/</t>
+  </si>
+  <si>
+    <t>http://hgdownload.soe.ucsc.edu/gbdb/hg38/bbi/wgEncodeReg/wgEncodeRegMarkH3k4me3/</t>
+  </si>
+  <si>
+    <t>http://hgdownload.soe.ucsc.edu/gbdb/hg38/bbi/wgEncodeRegDnase/</t>
+  </si>
+  <si>
+    <t>which file?</t>
+  </si>
+  <si>
+    <t>data for hg38?</t>
+  </si>
+  <si>
+    <t>only hg18?</t>
+  </si>
+  <si>
+    <t>https://ftp.ncbi.nlm.nih.gov/pub/dbVar/data/Homo_sapiens/by_assembly/GRCh38/gvf/</t>
+  </si>
+  <si>
+    <t>https://ftp.ncbi.nlm.nih.gov/pub/dbVar/data/Homo_sapiens/by_assembly/GRCh37/gvf/</t>
+  </si>
+  <si>
+    <t>http://dgv.tcag.ca/dgv/app/downloads?ref=GRCh38/</t>
+  </si>
+  <si>
+    <t>source?</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/dbvar/studies/nstd75/</t>
+  </si>
+  <si>
+    <t>which files?</t>
   </si>
 </sst>
 </file>
@@ -458,7 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -472,6 +543,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -787,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D42707-5D8A-C844-89A5-FD9639840AE4}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -801,12 +873,15 @@
     <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="67.83203125" style="11" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="66.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="92.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.1640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="52.83203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="23.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1">
+    <row r="1" spans="1:11" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
@@ -832,10 +907,13 @@
         <v>86</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,8 +929,20 @@
       <c r="E2" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="H2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -864,8 +954,17 @@
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="H3" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -881,8 +980,17 @@
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="H4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +1001,14 @@
       <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="H5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -913,11 +1027,14 @@
       <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -931,9 +1048,14 @@
         <v>97</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -947,10 +1069,13 @@
         <v>98</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -969,8 +1094,11 @@
       <c r="G9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -986,8 +1114,11 @@
       <c r="G10" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1003,8 +1134,11 @@
       <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1023,8 +1157,14 @@
       <c r="G12" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="H12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1040,8 +1180,14 @@
       <c r="G13" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="H13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1054,11 +1200,14 @@
       <c r="E14" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="H14" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -1071,11 +1220,14 @@
       <c r="E15" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="H15" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1088,11 +1240,14 @@
       <c r="E16" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -1104,11 +1259,17 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="1"/>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -1123,8 +1284,14 @@
       <c r="G18" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -1135,8 +1302,11 @@
       <c r="G19" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="K19" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1147,8 +1317,11 @@
       <c r="G20" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="K20" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -1159,8 +1332,11 @@
       <c r="G21" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="K21" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
@@ -1171,8 +1347,11 @@
         <v>71</v>
       </c>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="K22" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -1183,8 +1362,11 @@
         <v>71</v>
       </c>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="K23" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
@@ -1195,8 +1377,11 @@
         <v>69</v>
       </c>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="K24" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -1207,8 +1392,14 @@
       <c r="F25" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
@@ -1219,8 +1410,14 @@
       <c r="F26" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -1231,9 +1428,21 @@
       <c r="F27" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="E28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1245,6 +1454,9 @@
     <hyperlink ref="G19" r:id="rId6" xr:uid="{B492B73A-D332-114F-9F5F-45EF9937DD89}"/>
     <hyperlink ref="G18" r:id="rId7" xr:uid="{771453FC-D691-DF49-B1D0-243BAEA99491}"/>
     <hyperlink ref="G20" r:id="rId8" xr:uid="{5541B046-F15D-5B46-A978-F13963D00F6A}"/>
+    <hyperlink ref="H3" r:id="rId9" xr:uid="{0DDC4EEC-EFE5-8F4A-A851-98A7939C8598}"/>
+    <hyperlink ref="G15" r:id="rId10" xr:uid="{4613531B-0F13-6E48-A532-6DBF33AC152C}"/>
+    <hyperlink ref="G16" r:id="rId11" xr:uid="{8EF6E96A-7AA9-324F-928E-9A68F9C0E9AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lusine/Documents/Masterarbeit/Code/MA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC23D31-7EB6-9B4B-84D2-041402713D1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DDF0B6-913C-2E4A-A376-C6D4E2DEA970}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="16120" xr2:uid="{CBBA58C6-C4C8-8F40-AC78-68ADD622581E}"/>
   </bookViews>
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D42707-5D8A-C844-89A5-FD9639840AE4}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lusine/Documents/Masterarbeit/Code/MA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DDF0B6-913C-2E4A-A376-C6D4E2DEA970}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6135F8C-0EE2-EB42-80CD-9B80C530D6C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="16120" xr2:uid="{CBBA58C6-C4C8-8F40-AC78-68ADD622581E}"/>
+    <workbookView xWindow="-2480" yWindow="-18960" windowWidth="32160" windowHeight="18120" xr2:uid="{CBBA58C6-C4C8-8F40-AC78-68ADD622581E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="157">
   <si>
     <t>GCContent</t>
   </si>
@@ -270,9 +270,6 @@
     <t xml:space="preserve">Database of genome variants </t>
   </si>
   <si>
-    <t>ReMM</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
     <t>File name</t>
   </si>
   <si>
-    <t>cpgIslandExt</t>
-  </si>
-  <si>
     <t>perCpg</t>
   </si>
   <si>
@@ -381,9 +375,6 @@
     <t>Count over a window ?</t>
   </si>
   <si>
-    <t>many files, aggregate over?</t>
-  </si>
-  <si>
     <t>http://hgdownload.soe.ucsc.edu/goldenPath/hg19/phyloP46way/placentalMammals/</t>
   </si>
   <si>
@@ -430,6 +421,81 @@
   </si>
   <si>
     <t>which files?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cluster tabelle suchen </t>
+  </si>
+  <si>
+    <t>release notes von CADD</t>
+  </si>
+  <si>
+    <t>max peak (später)</t>
+  </si>
+  <si>
+    <t>number of peaks (später)</t>
+  </si>
+  <si>
+    <t>liftover?</t>
+  </si>
+  <si>
+    <t>weitersuche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">keine Daten </t>
+  </si>
+  <si>
+    <t>1000 Genome project, gibt skripte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension </t>
+  </si>
+  <si>
+    <t>bigWig</t>
+  </si>
+  <si>
+    <t>txt.gz</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>bb/bw</t>
+  </si>
+  <si>
+    <t>one file 7.8G or many small ones</t>
+  </si>
+  <si>
+    <t>https://hgdownload.soe.ucsc.edu/goldenPath/hg38/phastCons7way/</t>
+  </si>
+  <si>
+    <t>https://hgdownload.soe.ucsc.edu/goldenPath/hg38/phyloP7way/</t>
+  </si>
+  <si>
+    <t>https://hgdownload.soe.ucsc.edu/goldenPath/hg38/phastCons30way/</t>
+  </si>
+  <si>
+    <t>https://hgdownload.soe.ucsc.edu/goldenPath/hg38/phyloP30way/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> same file  for mamals and primates</t>
+  </si>
+  <si>
+    <t>ReMM_Name</t>
+  </si>
+  <si>
+    <t>Table_ID</t>
+  </si>
+  <si>
+    <t>cpgIslandExt.txt.gz</t>
+  </si>
+  <si>
+    <t>diverse</t>
   </si>
 </sst>
 </file>
@@ -859,604 +925,799 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D42707-5D8A-C844-89A5-FD9639840AE4}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="67.83203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="92.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="52.83203125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="23.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="67.83203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="0.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="92.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="84.5" style="1" customWidth="1"/>
+    <col min="10" max="12" width="26.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="52.83203125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="23.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1">
+    <row r="1" spans="1:14" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="J12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="H17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="H18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="H19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="H20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="N21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="N23" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="1"/>
-      <c r="G17" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="1"/>
-      <c r="G18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="G19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="G20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="1" t="s">
+    <row r="28" spans="1:17">
+      <c r="F28" s="1"/>
+      <c r="I28" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="K22" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="K23" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="K24" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="E28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>126</v>
+      <c r="N28" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" xr:uid="{E15B87C1-535A-644A-8307-94285605C691}"/>
-    <hyperlink ref="G9" r:id="rId2" xr:uid="{13FAAB28-03C1-1840-AD07-ABFFE375F1D4}"/>
-    <hyperlink ref="G11" r:id="rId3" xr:uid="{A827703E-7B6D-5A43-B5AE-94C8BC8DE758}"/>
-    <hyperlink ref="G14" r:id="rId4" xr:uid="{B807B74F-65A4-DC4E-8FE4-10B9FCF81653}"/>
-    <hyperlink ref="G17" r:id="rId5" xr:uid="{E1BDC858-A6B8-3347-9781-E860CB119DC2}"/>
-    <hyperlink ref="G19" r:id="rId6" xr:uid="{B492B73A-D332-114F-9F5F-45EF9937DD89}"/>
-    <hyperlink ref="G18" r:id="rId7" xr:uid="{771453FC-D691-DF49-B1D0-243BAEA99491}"/>
-    <hyperlink ref="G20" r:id="rId8" xr:uid="{5541B046-F15D-5B46-A978-F13963D00F6A}"/>
-    <hyperlink ref="H3" r:id="rId9" xr:uid="{0DDC4EEC-EFE5-8F4A-A851-98A7939C8598}"/>
-    <hyperlink ref="G15" r:id="rId10" xr:uid="{4613531B-0F13-6E48-A532-6DBF33AC152C}"/>
-    <hyperlink ref="G16" r:id="rId11" xr:uid="{8EF6E96A-7AA9-324F-928E-9A68F9C0E9AB}"/>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{E15B87C1-535A-644A-8307-94285605C691}"/>
+    <hyperlink ref="H9" r:id="rId2" xr:uid="{13FAAB28-03C1-1840-AD07-ABFFE375F1D4}"/>
+    <hyperlink ref="H11" r:id="rId3" xr:uid="{A827703E-7B6D-5A43-B5AE-94C8BC8DE758}"/>
+    <hyperlink ref="H14" r:id="rId4" xr:uid="{B807B74F-65A4-DC4E-8FE4-10B9FCF81653}"/>
+    <hyperlink ref="H17" r:id="rId5" xr:uid="{E1BDC858-A6B8-3347-9781-E860CB119DC2}"/>
+    <hyperlink ref="H19" r:id="rId6" xr:uid="{B492B73A-D332-114F-9F5F-45EF9937DD89}"/>
+    <hyperlink ref="H18" r:id="rId7" xr:uid="{771453FC-D691-DF49-B1D0-243BAEA99491}"/>
+    <hyperlink ref="H20" r:id="rId8" xr:uid="{5541B046-F15D-5B46-A978-F13963D00F6A}"/>
+    <hyperlink ref="H15" r:id="rId9" xr:uid="{4613531B-0F13-6E48-A532-6DBF33AC152C}"/>
+    <hyperlink ref="H16" r:id="rId10" xr:uid="{8EF6E96A-7AA9-324F-928E-9A68F9C0E9AB}"/>
+    <hyperlink ref="I17" r:id="rId11" xr:uid="{10E7D543-AF46-6A40-ADBE-290D1F32D42F}"/>
+    <hyperlink ref="I18" r:id="rId12" xr:uid="{8EFA77DC-718A-5A4B-9944-E8AFEB107775}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{27B7B671-A2C1-354D-97E5-5BC4C05AAAFB}"/>
+    <hyperlink ref="H7" r:id="rId14" xr:uid="{04F57986-A16C-2643-94A8-1BDAD35F054B}"/>
+    <hyperlink ref="H8" r:id="rId15" xr:uid="{2107AEAD-FBFF-E747-8CC1-7C1EA72BE313}"/>
+    <hyperlink ref="I2" r:id="rId16" xr:uid="{045EBF81-6802-2746-84B0-D9B73A72F658}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lusine/Documents/Masterarbeit/Code/MA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6135F8C-0EE2-EB42-80CD-9B80C530D6C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF27F3F2-8709-324E-8079-33B49AF0E9DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2480" yWindow="-18960" windowWidth="32160" windowHeight="18120" xr2:uid="{CBBA58C6-C4C8-8F40-AC78-68ADD622581E}"/>
+    <workbookView xWindow="-2480" yWindow="-18960" windowWidth="35760" windowHeight="18120" xr2:uid="{CBBA58C6-C4C8-8F40-AC78-68ADD622581E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="173">
   <si>
     <t>GCContent</t>
   </si>
@@ -408,9 +408,6 @@
     <t>https://ftp.ncbi.nlm.nih.gov/pub/dbVar/data/Homo_sapiens/by_assembly/GRCh38/gvf/</t>
   </si>
   <si>
-    <t>https://ftp.ncbi.nlm.nih.gov/pub/dbVar/data/Homo_sapiens/by_assembly/GRCh37/gvf/</t>
-  </si>
-  <si>
     <t>http://dgv.tcag.ca/dgv/app/downloads?ref=GRCh38/</t>
   </si>
   <si>
@@ -426,9 +423,6 @@
     <t xml:space="preserve">cluster tabelle suchen </t>
   </si>
   <si>
-    <t>release notes von CADD</t>
-  </si>
-  <si>
     <t>max peak (später)</t>
   </si>
   <si>
@@ -441,12 +435,6 @@
     <t>weitersuche</t>
   </si>
   <si>
-    <t xml:space="preserve">Paper </t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper </t>
-  </si>
-  <si>
     <t xml:space="preserve">keine Daten </t>
   </si>
   <si>
@@ -465,9 +453,6 @@
     <t>Rule</t>
   </si>
   <si>
-    <t>bb/bw</t>
-  </si>
-  <si>
     <t>one file 7.8G or many small ones</t>
   </si>
   <si>
@@ -496,6 +481,69 @@
   </si>
   <si>
     <t>diverse</t>
+  </si>
+  <si>
+    <t>.bigWig</t>
+  </si>
+  <si>
+    <t>hg38.phyloP7way.wigFix.gz</t>
+  </si>
+  <si>
+    <t>chr$Zahl|X|Y$</t>
+  </si>
+  <si>
+    <t>hg38.phastCons7way.wigFix.gz</t>
+  </si>
+  <si>
+    <t>bb/bw?</t>
+  </si>
+  <si>
+    <t>release notes von CADD: keine Beschreibung, außer description</t>
+  </si>
+  <si>
+    <t>Link Release hg38_</t>
+  </si>
+  <si>
+    <t>gleich</t>
+  </si>
+  <si>
+    <t>nicht gleich</t>
+  </si>
+  <si>
+    <t>http://hgdownload.cse.ucsc.edu/goldenPath/hg38/encodeDCC/wgEncodeRegMarkH3k4me1/</t>
+  </si>
+  <si>
+    <t>http://hgdownload.cse.ucsc.edu/goldenPath/hg38/encodeDCC/wgEncodeRegMarkH3k4me3/</t>
+  </si>
+  <si>
+    <t>http://hgdownload.cse.ucsc.edu/goldenPath/hg38/encodeDCC/wgEncodeRegMarkH3k27ac/</t>
+  </si>
+  <si>
+    <t>Alte und neue Links</t>
+  </si>
+  <si>
+    <t>http://www.nature.com/nature/journal/v507/n7493/full/nature12787.html</t>
+  </si>
+  <si>
+    <t>https://fantom.gsc.riken.jp/5/</t>
+  </si>
+  <si>
+    <t>https://fantom.gsc.riken.jp/5/datafiles/reprocessed/hg38_v1/basic/</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/record/545682#.Xx_Uni2w1N1</t>
+  </si>
+  <si>
+    <t>.tc.decompose_smoothing_merged.ctssMaxCounts3.bed.gz</t>
+  </si>
+  <si>
+    <t>tc.decompose_smoothing_merged.ctssMaxCounts11_ctssMaxTpm1.bed.gz</t>
+  </si>
+  <si>
+    <t>keine Tabelle tfbsConsSites für hg38</t>
+  </si>
+  <si>
+    <t>Skript/ Daten von CADD mit anderem Window</t>
   </si>
 </sst>
 </file>
@@ -925,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D42707-5D8A-C844-89A5-FD9639840AE4}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -941,19 +989,23 @@
     <col min="6" max="6" width="67.83203125" style="11" customWidth="1"/>
     <col min="7" max="7" width="0.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="92.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="84.5" style="1" customWidth="1"/>
-    <col min="10" max="12" width="26.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="52.83203125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="23.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="13.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="84.5" style="1" customWidth="1"/>
+    <col min="12" max="13" width="26.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="41.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="52.83203125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="23.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="47.33203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1">
+    <row r="1" spans="1:16" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>90</v>
@@ -974,22 +1026,28 @@
         <v>84</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="M1" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1011,23 +1069,29 @@
       <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>144</v>
+      <c r="K2" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1042,18 +1106,16 @@
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1072,17 +1134,17 @@
       <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>144</v>
+      <c r="L4" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1096,14 +1158,14 @@
       <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="L5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1129,16 +1191,25 @@
         <v>18</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>154</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1159,16 +1230,22 @@
         <v>19</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>160</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1188,13 +1265,22 @@
         <v>116</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>160</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1217,13 +1303,22 @@
         <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>160</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1243,13 +1338,19 @@
         <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>160</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1269,13 +1370,22 @@
         <v>29</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>160</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1294,20 +1404,21 @@
       <c r="G12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="K12" s="13"/>
+      <c r="L12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1326,17 +1437,17 @@
       <c r="H13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="L13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1355,17 +1466,26 @@
       <c r="H14" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="K14" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1385,16 +1505,25 @@
         <v>45</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>161</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1414,16 +1543,25 @@
         <v>48</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>162</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1437,32 +1575,38 @@
         <v>53</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F17" s="1"/>
       <c r="H17" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="N17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="Q17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1476,26 +1620,32 @@
         <v>53</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F18" s="1"/>
       <c r="H18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="N18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1506,23 +1656,35 @@
         <v>56</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="I19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="Q19" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>134</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1536,20 +1698,32 @@
       <c r="H20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="I20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="Q20" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>134</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1563,15 +1737,21 @@
       <c r="H21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="N21" s="1" t="s">
+      <c r="I21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="P21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="Q21" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1585,14 +1765,20 @@
         <v>71</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="N22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="I22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1606,11 +1792,11 @@
         <v>71</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="N23" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="P23" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1624,11 +1810,11 @@
         <v>69</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="N24" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="P24" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1642,14 +1828,17 @@
       <c r="G25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1663,14 +1852,20 @@
       <c r="G26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="K26" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:19">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1684,19 +1879,22 @@
       <c r="G27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="K27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:19">
       <c r="F28" s="1"/>
-      <c r="I28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1712,12 +1910,31 @@
     <hyperlink ref="H20" r:id="rId8" xr:uid="{5541B046-F15D-5B46-A978-F13963D00F6A}"/>
     <hyperlink ref="H15" r:id="rId9" xr:uid="{4613531B-0F13-6E48-A532-6DBF33AC152C}"/>
     <hyperlink ref="H16" r:id="rId10" xr:uid="{8EF6E96A-7AA9-324F-928E-9A68F9C0E9AB}"/>
-    <hyperlink ref="I17" r:id="rId11" xr:uid="{10E7D543-AF46-6A40-ADBE-290D1F32D42F}"/>
-    <hyperlink ref="I18" r:id="rId12" xr:uid="{8EFA77DC-718A-5A4B-9944-E8AFEB107775}"/>
-    <hyperlink ref="I14" r:id="rId13" xr:uid="{27B7B671-A2C1-354D-97E5-5BC4C05AAAFB}"/>
-    <hyperlink ref="H7" r:id="rId14" xr:uid="{04F57986-A16C-2643-94A8-1BDAD35F054B}"/>
-    <hyperlink ref="H8" r:id="rId15" xr:uid="{2107AEAD-FBFF-E747-8CC1-7C1EA72BE313}"/>
-    <hyperlink ref="I2" r:id="rId16" xr:uid="{045EBF81-6802-2746-84B0-D9B73A72F658}"/>
+    <hyperlink ref="K17" r:id="rId11" xr:uid="{10E7D543-AF46-6A40-ADBE-290D1F32D42F}"/>
+    <hyperlink ref="K18" r:id="rId12" xr:uid="{8EFA77DC-718A-5A4B-9944-E8AFEB107775}"/>
+    <hyperlink ref="H7" r:id="rId13" xr:uid="{04F57986-A16C-2643-94A8-1BDAD35F054B}"/>
+    <hyperlink ref="H8" r:id="rId14" xr:uid="{2107AEAD-FBFF-E747-8CC1-7C1EA72BE313}"/>
+    <hyperlink ref="K2" r:id="rId15" xr:uid="{045EBF81-6802-2746-84B0-D9B73A72F658}"/>
+    <hyperlink ref="K6" r:id="rId16" xr:uid="{FC146EE3-9D7C-4248-BD84-CB1F71E8C330}"/>
+    <hyperlink ref="N6" r:id="rId17" display="https://hgdownload.soe.ucsc.edu/goldenPath/hg38/phyloP30way/hg38.phyloP30way.bw" xr:uid="{D6F228D1-D7BF-F743-9C2A-11D2D059B158}"/>
+    <hyperlink ref="K7" r:id="rId18" xr:uid="{42FE9152-DEED-294C-B12E-966D3808CE99}"/>
+    <hyperlink ref="K8" r:id="rId19" xr:uid="{666B8F5C-132A-4A4C-A93E-B2F2C9F3B677}"/>
+    <hyperlink ref="K9" r:id="rId20" xr:uid="{D5A4776F-13DD-7343-A2A4-52BAF40B249C}"/>
+    <hyperlink ref="K10" r:id="rId21" xr:uid="{4A992BCD-91C0-EA4B-BA50-F0612D2AED61}"/>
+    <hyperlink ref="K11" r:id="rId22" xr:uid="{BE5FFC2A-01DD-404E-85F0-143CC9688CC3}"/>
+    <hyperlink ref="J17" r:id="rId23" xr:uid="{BCDFC0C2-446F-1745-84BF-0DF42B2F64CA}"/>
+    <hyperlink ref="J18" r:id="rId24" xr:uid="{F4F6CB96-FBC5-B44E-A65F-E691D354A120}"/>
+    <hyperlink ref="J14" r:id="rId25" xr:uid="{B32340A8-8FDD-FF43-B0F3-3D7ADE52C105}"/>
+    <hyperlink ref="J2" r:id="rId26" xr:uid="{D4CFA2A8-DE3E-4644-9B8F-7DA8A0385204}"/>
+    <hyperlink ref="J6" r:id="rId27" xr:uid="{DC2D198F-7697-4746-8534-602294D25B6A}"/>
+    <hyperlink ref="J7" r:id="rId28" xr:uid="{491B1A79-0E93-344E-B205-B0112E734A57}"/>
+    <hyperlink ref="J8" r:id="rId29" xr:uid="{CED81CB1-EEC4-FB42-8BE9-3A658CDEA89B}"/>
+    <hyperlink ref="J9" r:id="rId30" xr:uid="{194A2BA7-6B8B-6141-B96A-3CB179415622}"/>
+    <hyperlink ref="J10" r:id="rId31" xr:uid="{705C05DB-2805-6B4E-949A-4013A707E061}"/>
+    <hyperlink ref="J11" r:id="rId32" xr:uid="{98CAA680-4EE4-9549-ABFB-4673443BF3E5}"/>
+    <hyperlink ref="J12" r:id="rId33" xr:uid="{F1C84409-E11F-2A42-8685-7DA65C99B464}"/>
+    <hyperlink ref="K26" r:id="rId34" xr:uid="{E5A01AF7-2007-2247-A6A3-B083CF779CBC}"/>
+    <hyperlink ref="H12" r:id="rId35" xr:uid="{4543D07C-1E4B-004F-BFCF-518D1C872884}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lusine/Documents/Masterarbeit/Code/MA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF27F3F2-8709-324E-8079-33B49AF0E9DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52881F5-6039-F148-9F5E-4CC06E5C6983}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2480" yWindow="-18960" windowWidth="35760" windowHeight="18120" xr2:uid="{CBBA58C6-C4C8-8F40-AC78-68ADD622581E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{CBBA58C6-C4C8-8F40-AC78-68ADD622581E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="175">
   <si>
     <t>GCContent</t>
   </si>
@@ -544,6 +544,12 @@
   </si>
   <si>
     <t>Skript/ Daten von CADD mit anderem Window</t>
+  </si>
+  <si>
+    <t>https://hgdownload.soe.ucsc.edu/goldenPath/hg38/phyloP30way/hg38.30way.phyloP/</t>
+  </si>
+  <si>
+    <t>https://hgdownload.soe.ucsc.edu/goldenPath/hg38/phastCons30way/hg38.30way.phastCons/</t>
   </si>
 </sst>
 </file>
@@ -976,7 +982,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1197,7 +1203,7 @@
         <v>146</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>151</v>
@@ -1271,7 +1277,7 @@
         <v>145</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>151</v>
@@ -1309,7 +1315,7 @@
         <v>145</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>151</v>
@@ -1334,7 +1340,7 @@
       <c r="F10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1376,7 +1382,7 @@
         <v>145</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>151</v>
@@ -1915,26 +1921,23 @@
     <hyperlink ref="H7" r:id="rId13" xr:uid="{04F57986-A16C-2643-94A8-1BDAD35F054B}"/>
     <hyperlink ref="H8" r:id="rId14" xr:uid="{2107AEAD-FBFF-E747-8CC1-7C1EA72BE313}"/>
     <hyperlink ref="K2" r:id="rId15" xr:uid="{045EBF81-6802-2746-84B0-D9B73A72F658}"/>
-    <hyperlink ref="K6" r:id="rId16" xr:uid="{FC146EE3-9D7C-4248-BD84-CB1F71E8C330}"/>
-    <hyperlink ref="N6" r:id="rId17" display="https://hgdownload.soe.ucsc.edu/goldenPath/hg38/phyloP30way/hg38.phyloP30way.bw" xr:uid="{D6F228D1-D7BF-F743-9C2A-11D2D059B158}"/>
-    <hyperlink ref="K7" r:id="rId18" xr:uid="{42FE9152-DEED-294C-B12E-966D3808CE99}"/>
-    <hyperlink ref="K8" r:id="rId19" xr:uid="{666B8F5C-132A-4A4C-A93E-B2F2C9F3B677}"/>
-    <hyperlink ref="K9" r:id="rId20" xr:uid="{D5A4776F-13DD-7343-A2A4-52BAF40B249C}"/>
-    <hyperlink ref="K10" r:id="rId21" xr:uid="{4A992BCD-91C0-EA4B-BA50-F0612D2AED61}"/>
-    <hyperlink ref="K11" r:id="rId22" xr:uid="{BE5FFC2A-01DD-404E-85F0-143CC9688CC3}"/>
-    <hyperlink ref="J17" r:id="rId23" xr:uid="{BCDFC0C2-446F-1745-84BF-0DF42B2F64CA}"/>
-    <hyperlink ref="J18" r:id="rId24" xr:uid="{F4F6CB96-FBC5-B44E-A65F-E691D354A120}"/>
-    <hyperlink ref="J14" r:id="rId25" xr:uid="{B32340A8-8FDD-FF43-B0F3-3D7ADE52C105}"/>
-    <hyperlink ref="J2" r:id="rId26" xr:uid="{D4CFA2A8-DE3E-4644-9B8F-7DA8A0385204}"/>
-    <hyperlink ref="J6" r:id="rId27" xr:uid="{DC2D198F-7697-4746-8534-602294D25B6A}"/>
-    <hyperlink ref="J7" r:id="rId28" xr:uid="{491B1A79-0E93-344E-B205-B0112E734A57}"/>
-    <hyperlink ref="J8" r:id="rId29" xr:uid="{CED81CB1-EEC4-FB42-8BE9-3A658CDEA89B}"/>
-    <hyperlink ref="J9" r:id="rId30" xr:uid="{194A2BA7-6B8B-6141-B96A-3CB179415622}"/>
-    <hyperlink ref="J10" r:id="rId31" xr:uid="{705C05DB-2805-6B4E-949A-4013A707E061}"/>
-    <hyperlink ref="J11" r:id="rId32" xr:uid="{98CAA680-4EE4-9549-ABFB-4673443BF3E5}"/>
-    <hyperlink ref="J12" r:id="rId33" xr:uid="{F1C84409-E11F-2A42-8685-7DA65C99B464}"/>
-    <hyperlink ref="K26" r:id="rId34" xr:uid="{E5A01AF7-2007-2247-A6A3-B083CF779CBC}"/>
-    <hyperlink ref="H12" r:id="rId35" xr:uid="{4543D07C-1E4B-004F-BFCF-518D1C872884}"/>
+    <hyperlink ref="N6" r:id="rId16" display="https://hgdownload.soe.ucsc.edu/goldenPath/hg38/phyloP30way/hg38.phyloP30way.bw" xr:uid="{D6F228D1-D7BF-F743-9C2A-11D2D059B158}"/>
+    <hyperlink ref="K7" r:id="rId17" xr:uid="{42FE9152-DEED-294C-B12E-966D3808CE99}"/>
+    <hyperlink ref="K10" r:id="rId18" xr:uid="{4A992BCD-91C0-EA4B-BA50-F0612D2AED61}"/>
+    <hyperlink ref="J17" r:id="rId19" xr:uid="{BCDFC0C2-446F-1745-84BF-0DF42B2F64CA}"/>
+    <hyperlink ref="J18" r:id="rId20" xr:uid="{F4F6CB96-FBC5-B44E-A65F-E691D354A120}"/>
+    <hyperlink ref="J14" r:id="rId21" xr:uid="{B32340A8-8FDD-FF43-B0F3-3D7ADE52C105}"/>
+    <hyperlink ref="J2" r:id="rId22" xr:uid="{D4CFA2A8-DE3E-4644-9B8F-7DA8A0385204}"/>
+    <hyperlink ref="J6" r:id="rId23" xr:uid="{DC2D198F-7697-4746-8534-602294D25B6A}"/>
+    <hyperlink ref="J7" r:id="rId24" xr:uid="{491B1A79-0E93-344E-B205-B0112E734A57}"/>
+    <hyperlink ref="J8" r:id="rId25" xr:uid="{CED81CB1-EEC4-FB42-8BE9-3A658CDEA89B}"/>
+    <hyperlink ref="J9" r:id="rId26" xr:uid="{194A2BA7-6B8B-6141-B96A-3CB179415622}"/>
+    <hyperlink ref="J10" r:id="rId27" xr:uid="{705C05DB-2805-6B4E-949A-4013A707E061}"/>
+    <hyperlink ref="J11" r:id="rId28" xr:uid="{98CAA680-4EE4-9549-ABFB-4673443BF3E5}"/>
+    <hyperlink ref="J12" r:id="rId29" xr:uid="{F1C84409-E11F-2A42-8685-7DA65C99B464}"/>
+    <hyperlink ref="K26" r:id="rId30" xr:uid="{E5A01AF7-2007-2247-A6A3-B083CF779CBC}"/>
+    <hyperlink ref="H12" r:id="rId31" xr:uid="{4543D07C-1E4B-004F-BFCF-518D1C872884}"/>
+    <hyperlink ref="H10" r:id="rId32" xr:uid="{C3CF0E15-8219-2546-A4BA-3A4CAAEBF211}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
